--- a/MGMT_1223_SystemDevelopment/A2/MGMT_1223_Assignment_Rubrics_S25_A2.xlsx
+++ b/MGMT_1223_SystemDevelopment/A2/MGMT_1223_Assignment_Rubrics_S25_A2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kareem/Developer/Durham-College/MGMT-1223/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DURHAM COLLEGE\Github_S-2\Illu-Minatee.github.io\MGMT_1223_SystemDevelopment\A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13607121-CE6A-2E47-905D-80C1015B7A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C116FBFF-B206-43CF-A795-1E6DFC4E5FD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{91F3C1D2-4AD4-4BB4-BDD8-BEF10C733F3D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="16220" xr2:uid="{91F3C1D2-4AD4-4BB4-BDD8-BEF10C733F3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Assignment #2" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>MGMT 1223 - Systems Development 1 - Assignment #2</t>
   </si>
   <si>
-    <t>Team Member Names:</t>
-  </si>
-  <si>
     <t>3 = Yes, 2 = Somewhat, 1  = Barely, 0 = No</t>
   </si>
   <si>
@@ -136,6 +133,9 @@
   </si>
   <si>
     <t>Does the section provide a brief but meaningful rationale for how the authors will attain the necessary skillset to improve familiarity with the required technology?</t>
+  </si>
+  <si>
+    <t>Team Member Names:Nischal Shrestha Kasula</t>
   </si>
 </sst>
 </file>
@@ -707,20 +707,20 @@
   <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="72.83203125" customWidth="1"/>
-    <col min="3" max="3" width="4.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.453125" customWidth="1"/>
+    <col min="2" max="2" width="72.81640625" customWidth="1"/>
+    <col min="3" max="3" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
@@ -733,10 +733,10 @@
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
     </row>
-    <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15"/>
       <c r="B2" s="16" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C2" s="15"/>
       <c r="D2" s="15"/>
@@ -745,26 +745,26 @@
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
     </row>
-    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
     </row>
-    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <f>SUM(C6:C42)</f>
@@ -772,16 +772,16 @@
       </c>
       <c r="D4" s="3">
         <f>SUM(D6:D42)</f>
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
       <c r="N4" s="4"/>
     </row>
-    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="3"/>
@@ -791,55 +791,49 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>15</v>
       </c>
-      <c r="D6" s="3">
-        <v>15</v>
-      </c>
+      <c r="D6" s="3"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>15</v>
       </c>
-      <c r="D7" s="3">
-        <v>15</v>
-      </c>
+      <c r="D7" s="3"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="4"/>
       <c r="N7" s="4"/>
     </row>
-    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3">
         <v>15</v>
       </c>
-      <c r="D8" s="3">
-        <v>15</v>
-      </c>
+      <c r="D8" s="3"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
     </row>
-    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="19"/>
       <c r="B9" s="20"/>
       <c r="C9" s="3"/>
@@ -849,9 +843,9 @@
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
     </row>
-    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="3"/>
@@ -861,321 +855,285 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
-      <c r="D13" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5">
         <v>3</v>
       </c>
-      <c r="D14" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
     </row>
-    <row r="17" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="5">
         <v>3</v>
       </c>
-      <c r="D17" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D17" s="5"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D18" s="5"/>
+    </row>
+    <row r="19" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5">
         <v>3</v>
       </c>
-      <c r="D19" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D19" s="5"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5">
         <v>3</v>
       </c>
-      <c r="D22" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23" spans="1:4" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="5">
         <v>3</v>
       </c>
-      <c r="D23" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="5">
         <v>3</v>
       </c>
-      <c r="D24" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="5">
         <v>3</v>
       </c>
-      <c r="D27" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="5">
         <v>3</v>
       </c>
-      <c r="D28" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D28" s="5"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
     </row>
-    <row r="31" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C31" s="13">
         <v>3</v>
       </c>
-      <c r="D31" s="13">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D31" s="13"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="22" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B33" s="23"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C35" s="5">
         <v>3</v>
       </c>
-      <c r="D35" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C36" s="5">
         <v>3</v>
       </c>
-      <c r="D36" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" s="5">
         <v>3</v>
       </c>
-      <c r="D37" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="11"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39" s="1"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C40" s="5">
         <v>3</v>
       </c>
-      <c r="D40" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="D40" s="5"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C41" s="5">
         <v>3</v>
       </c>
-      <c r="D41" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="D41" s="5"/>
+    </row>
+    <row r="42" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="5">
         <v>3</v>
       </c>
-      <c r="D42" s="5">
-        <v>3</v>
-      </c>
+      <c r="D42" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1189,21 +1147,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101007F46E1EE071CCC43B4616188E5B9C8DE" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5b40b63a5e50bc10e6175397f0589a3f">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b7c4ba1b-2df5-4e4f-bb56-6c735e568dcd" xmlns:ns3="a82f25cb-36b7-4d93-bb5b-60ba7e0b628c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e680d52809fa9d8b85a36d98e7f68403" ns2:_="" ns3:_="">
     <xsd:import namespace="b7c4ba1b-2df5-4e4f-bb56-6c735e568dcd"/>
@@ -1380,24 +1323,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26557A4A-D0FA-4C6E-938D-CCEE84CEFA78}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC9CD961-E676-4A2B-BC29-CBE9E6D2D190}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0117947C-10FD-42B5-B7D1-990E2E6AADA6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1414,4 +1355,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC9CD961-E676-4A2B-BC29-CBE9E6D2D190}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26557A4A-D0FA-4C6E-938D-CCEE84CEFA78}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>